--- a/data/raw_data/credit_rating_supervisors.xlsx
+++ b/data/raw_data/credit_rating_supervisors.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Important Documents\02. Goethe Universität Frankfurt\06. Master Thesis\masterarbeit\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E35C3-00EA-4E55-9B68-1C8EC045C61F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA44FDC-F4D0-4E96-8539-C593073A840A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="credit_rating_Zorka" sheetId="6" r:id="rId1"/>
+    <sheet name="credit_rating" sheetId="6" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -1196,18 +1196,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>198</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>197</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>194</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>191</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>190</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>187</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>187</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>185</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>185</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>185</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>185</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>184</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>184</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>183</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>183</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>183</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>183</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>183</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>183</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>182</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>182</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>182</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>182</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>181</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>181</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>181</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>181</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>181</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>181</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>180</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>179</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>179</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>179</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>179</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>179</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>179</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>179</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>179</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>179</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>179</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>179</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>179</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>178</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>178</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>178</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>178</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>178</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>178</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>177</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>177</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>177</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>176</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>176</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>176</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>176</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>176</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>176</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>176</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>175</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>175</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>175</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>174</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>174</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>174</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>174</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>174</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>173</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>173</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>173</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>173</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>173</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>173</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>172</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>172</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>171</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>171</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>171</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>171</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>170</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>169</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>167</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>167</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>167</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>166</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>166</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>166</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>166</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>166</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>165</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>165</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>165</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>165</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>165</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>165</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>165</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>165</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>164</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>164</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>164</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>164</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>164</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>163</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>163</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>163</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>163</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>163</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>163</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>162</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>162</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>162</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>162</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>162</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>161</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>161</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>161</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>160</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>160</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>160</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>159</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>159</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>159</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>159</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>159</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>158</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>157</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>157</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>157</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>157</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>157</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>157</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>156</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>156</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>156</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>156</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>156</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>156</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>155</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>155</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>155</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>155</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>155</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>155</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>154</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>154</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>154</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>154</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>154</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>154</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>154</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>152</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>152</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>152</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>152</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>152</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>152</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>152</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>152</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>151</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>151</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>151</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>150</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>150</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>150</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>150</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>150</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>150</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>148</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>148</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>148</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>148</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>148</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>148</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>148</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>147</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>147</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>147</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>147</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>146</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>146</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>146</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>146</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>146</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>146</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>146</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>146</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>146</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>146</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>145</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>145</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>145</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>144</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>144</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>144</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>144</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>144</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>144</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>144</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>144</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>144</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>143</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>143</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>143</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>143</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>143</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>143</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>143</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>143</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>143</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>143</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>143</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>143</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>143</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>143</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>143</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>142</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>142</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>142</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>142</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>142</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>142</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>142</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>142</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>142</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>142</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>142</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>142</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>142</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>141</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>141</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>141</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>141</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>141</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>140</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>139</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>139</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>139</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>139</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>139</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>139</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>139</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>138</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>138</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>138</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>138</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>137</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>137</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>137</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>137</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>137</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>137</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>137</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>136</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>136</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>136</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>136</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>136</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>136</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>136</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>136</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>136</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>135</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>135</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>135</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>135</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>135</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>135</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>135</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>135</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>135</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>135</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>135</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>135</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>135</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>135</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>135</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>134</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>134</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>134</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>134</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>134</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>134</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>134</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>134</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>134</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>134</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>133</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>132</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>132</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>132</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>132</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>132</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>132</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>131</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>131</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>131</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>131</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>131</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>130</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>130</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>129</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>129</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>128</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>128</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>128</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>127</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>127</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>127</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>127</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>127</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>127</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>126</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>126</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>126</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>126</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>126</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>126</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>125</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>125</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>124</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>124</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>124</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>123</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>123</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>123</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>123</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>123</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>122</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>122</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>122</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>122</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>122</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>121</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>121</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>120</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>120</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>120</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>120</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>120</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>120</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>118</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>118</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>118</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>118</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>118</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>118</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>118</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>117</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>117</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>116</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>116</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>115</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>115</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>115</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>114</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>114</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>113</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>113</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>113</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>113</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>113</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>113</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>112</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>112</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>112</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>112</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>112</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>111</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>111</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>111</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>111</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>111</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>111</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>110</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>110</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>110</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>110</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>110</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>110</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>110</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>110</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>110</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>110</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>110</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>110</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>109</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>109</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>109</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>109</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>109</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>108</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>108</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>108</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>107</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>107</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>107</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>107</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>106</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>106</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>106</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>106</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>105</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>105</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>105</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>105</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>104</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>104</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>104</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>104</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>104</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>104</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>104</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>103</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>103</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>103</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>102</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>102</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>102</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>101</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>101</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>101</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>100</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>100</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>100</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>100</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>99</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>99</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>99</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>99</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>99</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>99</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>99</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>98</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>98</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>98</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>97</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>97</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>96</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>96</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>96</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>96</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>96</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>95</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>95</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>95</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>95</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>95</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>95</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>95</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>95</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>95</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>94</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>94</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>94</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>94</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>94</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>94</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>93</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>93</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>93</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>93</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>92</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>92</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>91</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>91</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>91</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>91</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>90</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>90</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>90</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>89</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>89</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>89</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>89</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>89</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>89</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>89</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>89</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>89</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>88</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>88</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>88</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>88</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>87</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>87</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>87</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>87</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>87</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>87</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>87</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>86</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>86</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>86</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>85</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>85</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>85</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>84</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>84</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>84</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>84</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>84</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>84</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>84</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>84</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>83</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>83</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>83</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>83</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>83</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>82</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>82</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>82</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>82</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>82</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>82</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>81</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>81</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>81</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>80</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>80</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>80</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>79</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>79</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>79</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>79</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>78</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>78</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>78</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>78</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>78</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>78</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>77</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>77</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>77</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>76</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>75</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>74</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>74</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>74</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>74</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>74</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>74</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>74</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>74</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>74</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>74</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>74</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>74</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>73</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>73</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>73</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>73</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>73</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>71</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>71</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>71</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>71</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>71</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>71</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>71</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>71</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>70</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>70</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>69</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>69</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>69</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>68</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>68</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>68</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>68</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>68</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>68</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>66</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>66</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>66</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>66</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>66</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>66</v>
       </c>
@@ -16579,7 +16579,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>66</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>66</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>66</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>66</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>65</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>64</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>64</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>64</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>64</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>64</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>63</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>62</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>62</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>61</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>61</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>61</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>61</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>61</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>60</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>60</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>60</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>60</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>60</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>60</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>59</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>59</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>59</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>59</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>59</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>58</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>58</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>58</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>58</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>57</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>57</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>57</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>57</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>56</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>56</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>56</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>56</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>55</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>55</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>54</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>54</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>54</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>54</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>54</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>54</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>53</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>53</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>52</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>52</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>52</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>51</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>51</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>51</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>51</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>50</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>50</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>50</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>50</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>50</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>49</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>49</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>49</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>49</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>49</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>49</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>49</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>49</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>49</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>49</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>49</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>49</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>48</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>48</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>48</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>48</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>47</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>47</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>46</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>46</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>46</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>46</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>44</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>44</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>44</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>44</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>44</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>44</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>44</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>44</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>41</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>41</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>41</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>41</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>41</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>40</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>40</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>40</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>39</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>39</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>37</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>37</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>37</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>37</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>37</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>36</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>36</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>35</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>35</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>35</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>34</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>34</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>32</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>32</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>31</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>30</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>30</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>30</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>29</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>29</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>29</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>28</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>28</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>28</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>28</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>28</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>27</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>27</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>27</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>27</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>27</v>
       </c>
@@ -19517,7 +19517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>26</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>26</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>25</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>25</v>
       </c>
@@ -19609,7 +19609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>25</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>25</v>
       </c>
@@ -19655,7 +19655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>23</v>
       </c>
@@ -19675,7 +19675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>23</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>23</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>23</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>23</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>22</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>22</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>22</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>22</v>
       </c>
@@ -19835,7 +19835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>20</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>20</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>20</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>20</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>19</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>19</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>19</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>17</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>17</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>17</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>15</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>15</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>15</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>14</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>14</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>14</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>14</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>13</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>13</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>11</v>
       </c>
@@ -20292,7 +20292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>11</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>9</v>
       </c>
@@ -20332,7 +20332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>5</v>
       </c>
@@ -20398,7 +20398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>5</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>2</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>2</v>
       </c>
